--- a/output_files/analyzed_data/jobs_needs_analyzed.xlsx
+++ b/output_files/analyzed_data/jobs_needs_analyzed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eweli\Desktop\uni\tesi\progetto\output_files\analyzed_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{4B2C3EB0-2F78-41E2-BE43-52C3855ABB2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{769E1F71-CD64-4F9C-AC32-26D3D4EC359E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="jobs_needs" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">jobs_needs!$A$2:$C$1769</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">jobs_needs!$A$1:$C$1769</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -5338,16 +5338,16 @@
     <t>file_name</t>
   </si>
   <si>
+    <t>219/356</t>
+  </si>
+  <si>
     <t>0 needs</t>
   </si>
   <si>
-    <t>136/356</t>
-  </si>
-  <si>
-    <t>220/356</t>
-  </si>
-  <si>
     <t>&gt;0 needs</t>
+  </si>
+  <si>
+    <t>137/356</t>
   </si>
 </sst>
 </file>
@@ -6192,7 +6192,7 @@
   <dimension ref="A1:G1769"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6208,27 +6208,27 @@
         <v>1770</v>
       </c>
       <c r="F1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1772</v>
+      </c>
+      <c r="G2" t="s">
         <v>1773</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1772</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1771</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1774</v>
       </c>
     </row>
     <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
@@ -6242,7 +6242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0</v>
       </c>
@@ -6308,7 +6308,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0</v>
       </c>
@@ -6341,7 +6341,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>0</v>
       </c>
@@ -6352,7 +6352,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>0</v>
       </c>
@@ -6363,7 +6363,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>0</v>
       </c>
@@ -6407,7 +6407,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>0</v>
       </c>
@@ -6418,7 +6418,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>0</v>
       </c>
@@ -6429,7 +6429,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>0</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0</v>
       </c>
@@ -6506,7 +6506,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>0</v>
       </c>
@@ -6517,7 +6517,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>0</v>
       </c>
@@ -6594,7 +6594,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>0</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>0</v>
       </c>
@@ -6638,7 +6638,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>0</v>
       </c>
@@ -6726,7 +6726,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>0</v>
       </c>
@@ -6737,7 +6737,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>0</v>
       </c>
@@ -6748,7 +6748,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>0</v>
       </c>
@@ -6770,7 +6770,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>0</v>
       </c>
@@ -6781,7 +6781,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>0</v>
       </c>
@@ -6803,7 +6803,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>0</v>
       </c>
@@ -6913,7 +6913,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>0</v>
       </c>
@@ -6935,7 +6935,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>0</v>
       </c>
@@ -6968,7 +6968,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>0</v>
       </c>
@@ -6979,7 +6979,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>0</v>
       </c>
@@ -6990,7 +6990,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>0</v>
       </c>
@@ -7177,7 +7177,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>0</v>
       </c>
@@ -7210,7 +7210,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>0</v>
       </c>
@@ -7320,7 +7320,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>0</v>
       </c>
@@ -7386,7 +7386,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>0</v>
       </c>
@@ -7463,7 +7463,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>0</v>
       </c>
@@ -7518,7 +7518,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>0</v>
       </c>
@@ -7540,7 +7540,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>0</v>
       </c>
@@ -7595,7 +7595,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>0</v>
       </c>
@@ -7727,7 +7727,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>0</v>
       </c>
@@ -7837,7 +7837,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>0</v>
       </c>
@@ -7958,7 +7958,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>0</v>
       </c>
@@ -8090,7 +8090,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>0</v>
       </c>
@@ -8112,7 +8112,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>0</v>
       </c>
@@ -8167,7 +8167,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>0</v>
       </c>
@@ -8189,7 +8189,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>0</v>
       </c>
@@ -8211,7 +8211,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>0</v>
       </c>
@@ -8222,7 +8222,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>0</v>
       </c>
@@ -8255,7 +8255,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>0</v>
       </c>
@@ -8288,7 +8288,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>0</v>
       </c>
@@ -8299,7 +8299,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>0</v>
       </c>
@@ -8321,7 +8321,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>0</v>
       </c>
@@ -8387,7 +8387,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>0</v>
       </c>
@@ -8398,7 +8398,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>0</v>
       </c>
@@ -8442,7 +8442,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>0</v>
       </c>
@@ -8464,7 +8464,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>0</v>
       </c>
@@ -8519,7 +8519,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>0</v>
       </c>
@@ -8541,7 +8541,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>0</v>
       </c>
@@ -8585,7 +8585,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>0</v>
       </c>
@@ -8684,7 +8684,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>0</v>
       </c>
@@ -8728,7 +8728,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>0</v>
       </c>
@@ -8739,7 +8739,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>0</v>
       </c>
@@ -8783,7 +8783,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>0</v>
       </c>
@@ -8794,7 +8794,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>0</v>
       </c>
@@ -8882,7 +8882,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>0</v>
       </c>
@@ -8893,7 +8893,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>0</v>
       </c>
@@ -8904,7 +8904,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>0</v>
       </c>
@@ -8926,7 +8926,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>0</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>0</v>
       </c>
@@ -8981,7 +8981,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>0</v>
       </c>
@@ -9014,7 +9014,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>0</v>
       </c>
@@ -9036,7 +9036,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>0</v>
       </c>
@@ -9069,7 +9069,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>0</v>
       </c>
@@ -9234,7 +9234,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>0</v>
       </c>
@@ -9300,7 +9300,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>0</v>
       </c>
@@ -9322,7 +9322,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>0</v>
       </c>
@@ -9333,7 +9333,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>0</v>
       </c>
@@ -9344,7 +9344,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>0</v>
       </c>
@@ -9399,7 +9399,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>0</v>
       </c>
@@ -9498,7 +9498,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>0</v>
       </c>
@@ -9575,7 +9575,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>0</v>
       </c>
@@ -9619,7 +9619,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>0</v>
       </c>
@@ -9630,7 +9630,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>0</v>
       </c>
@@ -9641,7 +9641,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>0</v>
       </c>
@@ -9652,7 +9652,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>0</v>
       </c>
@@ -9718,7 +9718,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>0</v>
       </c>
@@ -9894,7 +9894,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A336">
         <v>0</v>
       </c>
@@ -9949,7 +9949,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A341">
         <v>0</v>
       </c>
@@ -10015,7 +10015,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A347">
         <v>0</v>
       </c>
@@ -10114,7 +10114,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A356">
         <v>0</v>
       </c>
@@ -10312,7 +10312,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A374">
         <v>0</v>
       </c>
@@ -10389,7 +10389,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A381">
         <v>0</v>
       </c>
@@ -10411,7 +10411,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A383">
         <v>0</v>
       </c>
@@ -10455,7 +10455,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A387">
         <v>0</v>
       </c>
@@ -10488,7 +10488,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A390">
         <v>0</v>
       </c>
@@ -10554,7 +10554,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A396">
         <v>0</v>
       </c>
@@ -10576,7 +10576,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A398">
         <v>0</v>
       </c>
@@ -10620,7 +10620,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A402">
         <v>0</v>
       </c>
@@ -10653,7 +10653,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A405">
         <v>0</v>
       </c>
@@ -10664,7 +10664,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A406">
         <v>0</v>
       </c>
@@ -10730,7 +10730,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A412">
         <v>0</v>
       </c>
@@ -10741,7 +10741,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A413">
         <v>0</v>
       </c>
@@ -10752,7 +10752,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A414">
         <v>0</v>
       </c>
@@ -11104,7 +11104,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A446">
         <v>0</v>
       </c>
@@ -11148,7 +11148,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A450">
         <v>0</v>
       </c>
@@ -11159,7 +11159,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A451">
         <v>0</v>
       </c>
@@ -11346,7 +11346,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A468">
         <v>0</v>
       </c>
@@ -11357,7 +11357,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A469">
         <v>0</v>
       </c>
@@ -11467,7 +11467,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A479">
         <v>0</v>
       </c>
@@ -11599,7 +11599,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A491">
         <v>0</v>
       </c>
@@ -11610,7 +11610,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A492">
         <v>0</v>
       </c>
@@ -11621,7 +11621,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A493">
         <v>0</v>
       </c>
@@ -11632,7 +11632,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A494">
         <v>0</v>
       </c>
@@ -11775,7 +11775,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A507">
         <v>0</v>
       </c>
@@ -11885,7 +11885,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A517">
         <v>0</v>
       </c>
@@ -11918,7 +11918,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A520">
         <v>0</v>
       </c>
@@ -11929,7 +11929,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A521">
         <v>0</v>
       </c>
@@ -12039,7 +12039,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A531">
         <v>0</v>
       </c>
@@ -12083,7 +12083,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A535">
         <v>0</v>
       </c>
@@ -12182,7 +12182,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A544">
         <v>0</v>
       </c>
@@ -12237,7 +12237,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A549">
         <v>0</v>
       </c>
@@ -12259,7 +12259,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A551">
         <v>0</v>
       </c>
@@ -12292,7 +12292,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A554">
         <v>0</v>
       </c>
@@ -12303,7 +12303,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A555">
         <v>0</v>
       </c>
@@ -12314,7 +12314,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A556">
         <v>0</v>
       </c>
@@ -12402,7 +12402,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A564">
         <v>0</v>
       </c>
@@ -12413,7 +12413,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A565">
         <v>0</v>
       </c>
@@ -12501,7 +12501,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A573">
         <v>0</v>
       </c>
@@ -12534,7 +12534,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A576">
         <v>0</v>
       </c>
@@ -12589,7 +12589,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A581">
         <v>0</v>
       </c>
@@ -12611,7 +12611,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A583">
         <v>0</v>
       </c>
@@ -12655,7 +12655,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A587">
         <v>0</v>
       </c>
@@ -12666,7 +12666,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A588">
         <v>0</v>
       </c>
@@ -12776,7 +12776,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A598">
         <v>0</v>
       </c>
@@ -12875,7 +12875,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A607">
         <v>0</v>
       </c>
@@ -12886,7 +12886,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A608">
         <v>0</v>
       </c>
@@ -13040,7 +13040,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A622">
         <v>0</v>
       </c>
@@ -13084,7 +13084,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A626">
         <v>0</v>
       </c>
@@ -13106,7 +13106,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A628">
         <v>0</v>
       </c>
@@ -13150,7 +13150,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A632">
         <v>0</v>
       </c>
@@ -13161,7 +13161,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A633">
         <v>0</v>
       </c>
@@ -13183,7 +13183,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A635">
         <v>0</v>
       </c>
@@ -13194,7 +13194,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A636">
         <v>0</v>
       </c>
@@ -13238,7 +13238,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A640">
         <v>0</v>
       </c>
@@ -13304,7 +13304,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A646">
         <v>0</v>
       </c>
@@ -13326,7 +13326,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A648">
         <v>0</v>
       </c>
@@ -13359,7 +13359,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A651">
         <v>0</v>
       </c>
@@ -13458,7 +13458,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A660">
         <v>0</v>
       </c>
@@ -13480,7 +13480,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A662">
         <v>0</v>
       </c>
@@ -13491,7 +13491,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A663">
         <v>0</v>
       </c>
@@ -13502,7 +13502,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A664">
         <v>0</v>
       </c>
@@ -13513,7 +13513,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A665">
         <v>0</v>
       </c>
@@ -13524,7 +13524,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A666">
         <v>0</v>
       </c>
@@ -13535,7 +13535,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A667">
         <v>0</v>
       </c>
@@ -13557,7 +13557,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A669">
         <v>0</v>
       </c>
@@ -13568,7 +13568,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A670">
         <v>0</v>
       </c>
@@ -13601,7 +13601,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A673">
         <v>0</v>
       </c>
@@ -13645,7 +13645,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A677">
         <v>0</v>
       </c>
@@ -13810,7 +13810,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A692">
         <v>0</v>
       </c>
@@ -13854,7 +13854,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A696">
         <v>0</v>
       </c>
@@ -13887,7 +13887,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A699">
         <v>0</v>
       </c>
@@ -13898,7 +13898,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A700">
         <v>0</v>
       </c>
@@ -13953,7 +13953,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A705">
         <v>0</v>
       </c>
@@ -13964,7 +13964,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A706">
         <v>0</v>
       </c>
@@ -14162,7 +14162,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A724">
         <v>0</v>
       </c>
@@ -14261,7 +14261,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="733" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A733">
         <v>0</v>
       </c>
@@ -14305,7 +14305,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="737" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A737">
         <v>0</v>
       </c>
@@ -14382,7 +14382,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="744" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A744">
         <v>0</v>
       </c>
@@ -14404,7 +14404,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="746" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A746">
         <v>0</v>
       </c>
@@ -14778,7 +14778,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="780" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A780">
         <v>0</v>
       </c>
@@ -14811,7 +14811,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="783" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A783">
         <v>0</v>
       </c>
@@ -14855,7 +14855,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="787" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A787">
         <v>0</v>
       </c>
@@ -14932,7 +14932,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="794" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A794">
         <v>0</v>
       </c>
@@ -14954,7 +14954,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="796" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A796">
         <v>0</v>
       </c>
@@ -14987,7 +14987,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="799" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A799">
         <v>0</v>
       </c>
@@ -14998,7 +14998,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="800" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A800">
         <v>0</v>
       </c>
@@ -15064,7 +15064,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="806" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="806" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A806">
         <v>0</v>
       </c>
@@ -15240,7 +15240,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="822" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="822" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A822">
         <v>0</v>
       </c>
@@ -15339,7 +15339,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="831" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="831" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A831">
         <v>0</v>
       </c>
@@ -15350,7 +15350,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="832" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="832" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A832">
         <v>0</v>
       </c>
@@ -15372,7 +15372,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="834" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="834" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A834">
         <v>0</v>
       </c>
@@ -15383,7 +15383,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="835" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="835" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A835">
         <v>0</v>
       </c>
@@ -15394,7 +15394,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="836" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="836" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A836">
         <v>0</v>
       </c>
@@ -15405,7 +15405,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="837" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="837" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A837">
         <v>0</v>
       </c>
@@ -15471,7 +15471,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="843" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="843" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A843">
         <v>0</v>
       </c>
@@ -15482,7 +15482,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="844" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="844" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A844">
         <v>0</v>
       </c>
@@ -15515,7 +15515,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="847" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="847" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A847">
         <v>0</v>
       </c>
@@ -15526,7 +15526,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="848" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="848" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A848">
         <v>0</v>
       </c>
@@ -15592,7 +15592,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="854" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="854" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A854">
         <v>0</v>
       </c>
@@ -15614,7 +15614,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="856" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="856" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A856">
         <v>0</v>
       </c>
@@ -15636,7 +15636,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="858" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="858" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A858">
         <v>0</v>
       </c>
@@ -15702,7 +15702,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="864" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="864" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A864">
         <v>0</v>
       </c>
@@ -15713,7 +15713,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="865" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="865" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A865">
         <v>0</v>
       </c>
@@ -15801,7 +15801,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="873" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="873" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A873">
         <v>0</v>
       </c>
@@ -15823,7 +15823,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="875" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="875" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A875">
         <v>0</v>
       </c>
@@ -15845,7 +15845,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="877" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="877" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A877">
         <v>0</v>
       </c>
@@ -15856,7 +15856,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="878" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="878" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A878">
         <v>0</v>
       </c>
@@ -15889,7 +15889,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="881" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="881" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A881">
         <v>0</v>
       </c>
@@ -15966,7 +15966,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="888" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="888" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A888">
         <v>0</v>
       </c>
@@ -15988,7 +15988,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="890" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="890" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A890">
         <v>0</v>
       </c>
@@ -15999,7 +15999,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="891" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="891" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A891">
         <v>0</v>
       </c>
@@ -16010,7 +16010,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="892" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="892" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A892">
         <v>0</v>
       </c>
@@ -16076,7 +16076,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="898" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="898" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A898">
         <v>0</v>
       </c>
@@ -16120,7 +16120,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="902" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="902" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A902">
         <v>0</v>
       </c>
@@ -16175,7 +16175,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="907" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="907" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A907">
         <v>0</v>
       </c>
@@ -16208,7 +16208,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="910" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="910" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A910">
         <v>0</v>
       </c>
@@ -16252,7 +16252,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="914" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="914" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A914">
         <v>0</v>
       </c>
@@ -16274,7 +16274,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="916" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="916" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A916">
         <v>0</v>
       </c>
@@ -16362,7 +16362,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="924" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="924" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A924">
         <v>0</v>
       </c>
@@ -16626,7 +16626,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="948" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="948" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A948">
         <v>0</v>
       </c>
@@ -16736,7 +16736,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="958" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="958" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A958">
         <v>0</v>
       </c>
@@ -16747,7 +16747,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="959" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="959" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A959">
         <v>0</v>
       </c>
@@ -16791,7 +16791,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="963" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="963" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A963">
         <v>0</v>
       </c>
@@ -16802,7 +16802,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="964" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="964" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A964">
         <v>0</v>
       </c>
@@ -16868,7 +16868,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="970" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="970" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A970">
         <v>0</v>
       </c>
@@ -16912,7 +16912,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="974" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="974" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A974">
         <v>0</v>
       </c>
@@ -16978,7 +16978,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="980" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="980" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A980">
         <v>0</v>
       </c>
@@ -17011,7 +17011,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="983" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="983" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A983">
         <v>0</v>
       </c>
@@ -17143,7 +17143,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="995" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="995" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A995">
         <v>0</v>
       </c>
@@ -17154,7 +17154,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="996" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="996" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A996">
         <v>0</v>
       </c>
@@ -17165,7 +17165,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="997" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="997" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A997">
         <v>0</v>
       </c>
@@ -17275,7 +17275,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="1007" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1007" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A1007">
         <v>0</v>
       </c>
@@ -17297,7 +17297,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="1009" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1009" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A1009">
         <v>0</v>
       </c>
@@ -17363,7 +17363,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="1015" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1015" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A1015">
         <v>0</v>
       </c>
@@ -17385,7 +17385,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="1017" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1017" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A1017">
         <v>0</v>
       </c>
@@ -25669,28 +25669,23 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:C1769">
-    <filterColumn colId="1">
+  <autoFilter ref="A1:C1769">
+    <filterColumn colId="0">
       <filters>
+        <filter val="1"/>
         <filter val="10"/>
-        <filter val="11"/>
-        <filter val="13"/>
-        <filter val="17"/>
+        <filter val="12"/>
         <filter val="2"/>
         <filter val="3"/>
         <filter val="4"/>
-        <filter val="48"/>
+        <filter val="44"/>
         <filter val="5"/>
         <filter val="6"/>
-        <filter val="7"/>
         <filter val="8"/>
-        <filter val="9"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C1766">
-      <sortCondition ref="A3:A1769"/>
-    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>